--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-time-quantity.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-time-quantity.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T09:56:16+01:00</t>
+    <t>2025-01-21T11:06:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>CARA (https://www.cara.ch)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-quantity</t>
+    <t>http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-quantity-with-emed-units</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -351,7 +351,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-time-quantity-strict-positive:A time quantity shall have a strictly positive value {$this &gt; 0}time-quantity-only-integer:A time quantity shall only have an integer value {$this.convertsToInteger()}</t>
+time-quantity-strict-positive:A time quantity shall have a strictly positive value {$this &gt; 0}time-quantity-only-integer:A time quantity shall only have an integer value {$this.toString().convertsToInteger()}</t>
   </si>
   <si>
     <t>SN.2  / CQ - N/A</t>
@@ -426,7 +426,7 @@
 </t>
   </si>
   <si>
-    <t>System of the code from Units of Presentation</t>
+    <t>System that defines coded unit form</t>
   </si>
   <si>
     <t>The identification of the system that provides the coded form of the unit.</t>
@@ -451,7 +451,7 @@
     <t>Coded form of the unit</t>
   </si>
   <si>
-    <t>Units of Presentation</t>
+    <t>A computer processable form of the unit in some unit representation system.</t>
   </si>
   <si>
     <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
@@ -779,43 +779,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.46484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.46484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="8.171875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="20.22265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.22265625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="9.734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="10.04296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="135.55078125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="140.296875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.3671875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="73.359375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="19.46484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.0859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="70.70703125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="20.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="25.75" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="66.50390625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="68.94921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-time-quantity.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-time-quantity.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T11:06:41+00:00</t>
+    <t>2026-02-11T07:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -373,7 +373,7 @@
     <t>Not allowed to be used in this context</t>
   </si>
   <si>
-    <t>All modifiers SHALL be documented in the profile, in order to be usable.</t>
+    <t>...All modifiers SHALL be documented in the profile, in order to be usable.</t>
   </si>
   <si>
     <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
@@ -779,43 +779,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.22265625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="20.22265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="17.33984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.33984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="10.04296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="8.609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="140.296875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="120.28125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="54.0859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="70.70703125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="20.22265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="46.3671875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="60.6171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="17.33984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="28.1484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="68.94921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.1328125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="59.11328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
